--- a/eks cluster creation.xlsx
+++ b/eks cluster creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10718446\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2099890-A454-4F80-A7F6-CD0C45BA0CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AC8FFD-CEDD-4C35-8136-BD177FA3BE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E30E25E2-98A4-47DB-BD1C-22B794961E05}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>curl -o kubectl.sha256 https://s3.us-west-2.amazonaws.com/amazon-eks/1.22.15/2022-10-31/bin/linux/amd64/kubectl.sha256</t>
   </si>
@@ -508,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40130BC9-C323-4C5A-8E6A-778684565E1B}">
   <dimension ref="C1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -590,6 +590,11 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
         <v>1</v>

--- a/eks cluster creation.xlsx
+++ b/eks cluster creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10718446\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7AC8FFD-CEDD-4C35-8136-BD177FA3BE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFA5E76-2B29-4806-9647-DD4D1A67EA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E30E25E2-98A4-47DB-BD1C-22B794961E05}"/>
   </bookViews>
@@ -34,7 +34,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+  <si>
+    <t>curl -o kubectl https://s3.us-west-2.amazonaws.com/amazon-eks/1.22.15/2022-10-31/bin/linux/amd64/kubectl</t>
+  </si>
   <si>
     <t>curl -o kubectl.sha256 https://s3.us-west-2.amazonaws.com/amazon-eks/1.22.15/2022-10-31/bin/linux/amd64/kubectl.sha256</t>
   </si>
@@ -509,7 +512,7 @@
   <dimension ref="C1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="N37" sqref="N37"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -519,37 +522,37 @@
     </row>
     <row r="3" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C7" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C11" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="3:3" x14ac:dyDescent="0.35">
@@ -557,32 +560,32 @@
     </row>
     <row r="18" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C20" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C22" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C28" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.35">
@@ -592,72 +595,72 @@
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C33" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C34" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C36" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C38" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C42" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C44" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="54" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C59" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C60" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C61" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="62" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.35">
       <c r="C63" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/eks cluster creation.xlsx
+++ b/eks cluster creation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\10718446\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAFA5E76-2B29-4806-9647-DD4D1A67EA27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8BEE235-9107-4BC9-BB05-F612F22CF180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{E30E25E2-98A4-47DB-BD1C-22B794961E05}"/>
   </bookViews>
@@ -512,7 +512,7 @@
   <dimension ref="C1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
